--- a/biology/Médecine/Artère_gastrique_droite/Artère_gastrique_droite.xlsx
+++ b/biology/Médecine/Artère_gastrique_droite/Artère_gastrique_droite.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Art%C3%A8re_gastrique_droite</t>
+          <t>Artère_gastrique_droite</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'artère gastrique droite (ancienne nomenclature : artère pylorique) naît de l'artère hépatique propre qui provient de l'artère hépatique commune.
 L'artère gastrique droite assure la vascularisation artérielle de l'estomac et forme avec l'artère gastrique gauche le cercle artériel de la petite courbure de l'estomac.
